--- a/bom/BOM_AxxSolder_V2_2.xlsx
+++ b/bom/BOM_AxxSolder_V2_2.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axel_\ownCloud - axel@192.168.1.36\2_Project\00_AxxProjects\AxxSolder\PCB\AxxSolder\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepo\AxxSolder_hw\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{118832B6-005A-4E89-8730-9FCA7E276CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1586CD70-7515-4C2E-A7C3-60FCBC5F931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="2115" windowWidth="26460" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -767,8 +778,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;kr&quot;_-;\-* #,##0.00\ &quot;kr&quot;_-;_-* &quot;-&quot;??\ &quot;kr&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -935,21 +946,21 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -962,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
@@ -1269,10 +1280,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:H73"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,13 +1295,13 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111" customWidth="1"/>
-    <col min="9" max="9" width="100.42578125" customWidth="1"/>
-    <col min="10" max="10" width="38" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="8" max="9" width="111" customWidth="1"/>
+    <col min="10" max="10" width="100.42578125" customWidth="1"/>
+    <col min="11" max="11" width="38" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>244</v>
       </c>
@@ -1308,8 +1319,9 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
-    </row>
-    <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="26"/>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -1323,8 +1335,9 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -1347,17 +1360,18 @@
         <v>172</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>227</v>
       </c>
@@ -1383,13 +1397,17 @@
       <c r="H4" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="21" t="str">
+        <f>HYPERLINK(SUBSTITUTE(H4,".se",".com"))</f>
+        <v>https://www.mouser.com/ProductDetail/Murata-Electronics/GRM21BR6YA106ME43L?qs=K0Sa7bCb58L8Cutg5cHuEA%3D%3D</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>233</v>
       </c>
@@ -1415,11 +1433,15 @@
       <c r="H5" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="21" t="str">
+        <f t="shared" ref="I5:I41" si="1">HYPERLINK(SUBSTITUTE(H5,".se",".com"))</f>
+        <v>https://www.mouser.com/ProductDetail/KYOCERA-AVX/KGM21NR71H104KT?qs=Jm2GQyTW%2Fbj%252BykwLLGtT1A%3D%3D</v>
+      </c>
+      <c r="J5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>234</v>
       </c>
@@ -1445,8 +1467,12 @@
       <c r="H6" s="20" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/TDK/C2012X6S1C226M125AC?qs=6JAMGB%252BEdkzwYUkuPLa%252B7A%3D%3D</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -1472,8 +1498,12 @@
       <c r="H7" s="20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/TDK/C3216X5R1V226M160AC?qs=NRhsANhppD8TwN31eZ1xGQ%3D%3D</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1499,11 +1529,15 @@
       <c r="H8" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/KYOCERA-AVX/KGM21NR71H102KT?qs=Jm2GQyTW%2FbjaB2aNl9uKTA%3D%3D</v>
+      </c>
+      <c r="J8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1529,17 +1563,21 @@
       <c r="H9" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Chemi-Con/EMZR500ARA331MJA0G?qs=y6ZabgHbY%252ByH%252BUe1C3ntew%3D%3D</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>189</v>
       </c>
@@ -1565,11 +1603,15 @@
       <c r="H10" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/KYOCERA-AVX/08051A750JAT2A?qs=xM%2FcMNU7BsFb8CFBKrIbNg%3D%3D</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -1595,11 +1637,15 @@
       <c r="H11" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Diotec-Semiconductor/BAT54S?qs=OlC7AqGiEDl5%2FwzZD7rGmQ%3D%3D</v>
+      </c>
+      <c r="J11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1625,17 +1671,21 @@
       <c r="H12" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Nexperia/PMEG6020ER115?qs=5DYmZrWuUErk3dU9e9SSpA%3D%3D</v>
+      </c>
+      <c r="J12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>30</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1661,8 +1711,12 @@
       <c r="H13" s="20" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.welectron.com/Waveshare-13992-15inch-OLED-Module_1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1688,17 +1742,21 @@
       <c r="H14" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Nexperia/PMEG10030ELPX?qs=bel5lzaZNxQd6L7wuvMmFQ%3D%3D</v>
+      </c>
+      <c r="J14" t="s">
         <v>39</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>36</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>237</v>
       </c>
@@ -1724,17 +1782,21 @@
       <c r="H15" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Littelfuse/SMBJ24CA?qs=JJML70Qc14u3Wc4gmMep1w%3D%3D</v>
+      </c>
+      <c r="J15" t="s">
         <v>243</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>238</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -1760,11 +1822,15 @@
       <c r="H16" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Keystone-Electronics/3557-2?qs=cxy41lVAGV%2FfbyASjpXK1g%3D%3D</v>
+      </c>
+      <c r="J16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1790,17 +1856,21 @@
       <c r="H17" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Analog-Devices/LTC4440AHMS8E-5PBF?qs=hVkxg5c3xu86VC%252BBJjm7uA%3D%3D</v>
+      </c>
+      <c r="J17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>46</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1826,17 +1896,21 @@
       <c r="H18" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/STMicroelectronics/STM32G431KBT6?qs=T3oQrply3y8teCTeNAFOLg%3D%3D</v>
+      </c>
+      <c r="J18" t="s">
         <v>55</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -1862,17 +1936,21 @@
       <c r="H19" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Bourns/SRP7028CC-100M?qs=1Kr7Jg1SGW%252BFrchEKUd2WQ%3D%3D</v>
+      </c>
+      <c r="J19" t="s">
         <v>186</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>183</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -1898,17 +1976,21 @@
       <c r="H20" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Texas-Instruments/TMP236AQDBZRQ1?qs=T3oQrply3y83CHFf%2F7t6GQ%3D%3D</v>
+      </c>
+      <c r="J20" t="s">
         <v>61</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -1934,17 +2016,21 @@
       <c r="H21" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Texas-Instruments/OPA2333AIDRBR?qs=pJP364FAHqRpZMi9vrj2VQ%3D%3D</v>
+      </c>
+      <c r="J21" t="s">
         <v>67</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>64</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1970,11 +2056,15 @@
       <c r="H22" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Wurth-Elektronik/691243310007?qs=sPbYRqrBIVlY9pfFip%2Fg9g%3D%3D</v>
+      </c>
+      <c r="J22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -2000,11 +2090,15 @@
       <c r="H23" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/TE-Connectivity/5-534237-5?qs=GYgf5PdsjzmjeTI%2Fz24JQA%3D%3D</v>
+      </c>
+      <c r="J23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2030,17 +2124,21 @@
       <c r="H24" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/CUI-Devices/CMI-9653S-SMT-TR?qs=qCxwlXJ4fnz7UpLQu8UKbg%3D%3D</v>
+      </c>
+      <c r="J24" t="s">
         <v>79</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>76</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -2066,17 +2164,21 @@
       <c r="H25" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/STMicroelectronics/LD1117AS33TR?qs=C3bf%2FVrkE5CoDDd7wyn%252BaQ%3D%3D</v>
+      </c>
+      <c r="J25" t="s">
         <v>85</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>82</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -2102,14 +2204,18 @@
       <c r="H26" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Texas-Instruments/TPS54302DDCT?qs=zEmsApcVOkXGTx6CMk2KtQ%3D%3D</v>
+      </c>
+      <c r="J26" t="s">
         <v>180</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -2135,17 +2241,21 @@
       <c r="H27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Nexperia/2N7002NXAKR?qs=%252B6g0mu59x7JoAsZYPFXqhw%3D%3D</v>
+      </c>
+      <c r="J27" t="s">
         <v>91</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>88</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>93</v>
       </c>
@@ -2171,11 +2281,15 @@
       <c r="H28" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-HP6D4701V?qs=eP2BKZSCXI5V1EkyCWJmgQ%3D%3D</v>
+      </c>
+      <c r="J28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -2201,11 +2315,15 @@
       <c r="H29" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-P06F4702V?qs=iIVTEDlrHA3GchgRrCB%252BPw%3D%3D</v>
+      </c>
+      <c r="J29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -2231,11 +2349,15 @@
       <c r="H30" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/ROHM-Semiconductor/SDR10EZPF6801?qs=ulEaXIWI0c%252B7C%252BEu89Fpsg%3D%3D</v>
+      </c>
+      <c r="J30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -2261,11 +2383,15 @@
       <c r="H31" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-P06F1002V?qs=Zyl8A9hlmJpSDn8Y2yUh3g%3D%3D</v>
+      </c>
+      <c r="J31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>103</v>
       </c>
@@ -2291,11 +2417,15 @@
       <c r="H32" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Vishay-Dale/WSLP25122L500FEA?qs=%2FCXICPRLKg%252BpcyljWM%2FHhA%3D%3D</v>
+      </c>
+      <c r="J32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -2321,11 +2451,15 @@
       <c r="H33" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-P06F2200V?qs=iIVTEDlrHA386ZSEyaXM2A%3D%3D</v>
+      </c>
+      <c r="J33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -2351,11 +2485,15 @@
       <c r="H34" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-T06J152V?qs=iIVTEDlrHA26dD1FOa2exQ%3D%3D</v>
+      </c>
+      <c r="J34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2381,11 +2519,15 @@
       <c r="H35" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-6ENF4703V?qs=JjxTDIFmKPR1WT6%252Bqzbe%2FA%3D%3D</v>
+      </c>
+      <c r="J35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -2411,11 +2553,15 @@
       <c r="H36" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Panasonic/ERJ-6ENF2203V?qs=50QC8w71jAuUzUf5ycREdA%3D%3D</v>
+      </c>
+      <c r="J36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -2441,8 +2587,12 @@
       <c r="H37" s="20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Vishay-Dale/RCC080549R9FKEA?qs=GedFDFLaBXFSdbXYm9WSig%3D%3D</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>193</v>
       </c>
@@ -2468,8 +2618,12 @@
       <c r="H38" s="20" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Bourns/CR0805AFX-1003ELF?qs=GedFDFLaBXEQCAFxmzLWkA%3D%3D</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -2495,8 +2649,12 @@
       <c r="H39" s="20" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Bourns/CR0805-FX-1332ELF?qs=Hqdsf0hGw%2FBPaTV9GpndaQ%3D%3D</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2522,17 +2680,21 @@
       <c r="H40" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Bourns/PEC11L-4220F-S0015?qs=Q4nXA9D1WFOSxqK3IduBbA%3D%3D</v>
+      </c>
+      <c r="J40" t="s">
         <v>117</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>114</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>119</v>
       </c>
@@ -2558,8 +2720,12 @@
       <c r="H41" s="20" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="I41" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://www.mouser.com/ProductDetail/Infineon-Technologies/BSC014N04LS?qs=EUA%2Fg8wssK2F8IHptsBUDw%3D%3D</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>145</v>
       </c>
@@ -2573,7 +2739,7 @@
         <v>61.468000000000018</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -2582,12 +2748,12 @@
       <c r="F43" s="4"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:12" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2605,7 +2771,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>202</v>
       </c>
@@ -2622,8 +2788,9 @@
       <c r="H46" s="20" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>213</v>
       </c>
@@ -2641,8 +2808,9 @@
       <c r="H47" s="20" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>225</v>
       </c>
@@ -2660,8 +2828,9 @@
       <c r="H48" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="20"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>231</v>
       </c>
@@ -2672,14 +2841,15 @@
         <v>1.22</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" ref="G49:G51" si="1">F49*E49</f>
+        <f t="shared" ref="G49:G51" si="2">F49*E49</f>
         <v>2.44</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="20"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>228</v>
       </c>
@@ -2690,14 +2860,15 @@
         <v>1.22</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.44</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="20"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>168</v>
       </c>
@@ -2708,14 +2879,15 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0099999999999998</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="20"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>166</v>
       </c>
@@ -2726,14 +2898,15 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" ref="G52:G58" si="2">F52*E52</f>
+        <f t="shared" ref="G52:G58" si="3">F52*E52</f>
         <v>2.4700000000000002</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="20"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -2744,14 +2917,14 @@
         <v>5</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H53" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -2765,14 +2938,14 @@
         <v>0.1</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="H54" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
         <v>215</v>
       </c>
@@ -2793,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>207</v>
       </c>
@@ -2807,14 +2980,14 @@
         <v>0.1</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="H56" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>208</v>
       </c>
@@ -2828,14 +3001,14 @@
         <v>0.1</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H57" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>210</v>
       </c>
@@ -2846,14 +3019,14 @@
         <v>1</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>148</v>
       </c>
@@ -2867,13 +3040,13 @@
         <v>30.359999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="24" t="s">
         <v>221</v>
       </c>
       <c r="B61" s="24"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>150</v>
       </c>
@@ -2891,10 +3064,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="24" t="s">
         <v>220</v>
       </c>
@@ -2941,7 +3114,7 @@
         <v>66.34</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G69" si="3">F68*E68</f>
+        <f t="shared" ref="G68:G69" si="4">F68*E68</f>
         <v>66.34</v>
       </c>
       <c r="H68" t="s">
@@ -2959,7 +3132,7 @@
         <v>38.340000000000003</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.340000000000003</v>
       </c>
       <c r="H69" t="s">
